--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2484426666666667</v>
+        <v>0.047456</v>
       </c>
       <c r="H2">
-        <v>0.745328</v>
+        <v>0.142368</v>
       </c>
       <c r="I2">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="J2">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N2">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q2">
-        <v>1.036426699063111</v>
+        <v>0.119008116192</v>
       </c>
       <c r="R2">
-        <v>9.327840291567998</v>
+        <v>1.071073045728</v>
       </c>
       <c r="S2">
-        <v>0.01505212997409833</v>
+        <v>0.002554556647689065</v>
       </c>
       <c r="T2">
-        <v>0.01505212997409833</v>
+        <v>0.002554556647689064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2484426666666667</v>
+        <v>0.047456</v>
       </c>
       <c r="H3">
-        <v>0.745328</v>
+        <v>0.142368</v>
       </c>
       <c r="I3">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="J3">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q3">
-        <v>5.066726245281778</v>
+        <v>0.9678150855573333</v>
       </c>
       <c r="R3">
-        <v>45.600536207536</v>
+        <v>8.710335770016</v>
       </c>
       <c r="S3">
-        <v>0.07358457868375747</v>
+        <v>0.02077453655812463</v>
       </c>
       <c r="T3">
-        <v>0.07358457868375747</v>
+        <v>0.02077453655812462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2484426666666667</v>
+        <v>0.047456</v>
       </c>
       <c r="H4">
-        <v>0.745328</v>
+        <v>0.142368</v>
       </c>
       <c r="I4">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="J4">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N4">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O4">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P4">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q4">
-        <v>3.511899243580444</v>
+        <v>0.46923686048</v>
       </c>
       <c r="R4">
-        <v>31.607093192224</v>
+        <v>4.22313174432</v>
       </c>
       <c r="S4">
-        <v>0.05100366858369745</v>
+        <v>0.01007235623615819</v>
       </c>
       <c r="T4">
-        <v>0.05100366858369745</v>
+        <v>0.01007235623615819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.165916</v>
       </c>
       <c r="I5">
-        <v>0.5931478551122046</v>
+        <v>0.7427665150281654</v>
       </c>
       <c r="J5">
-        <v>0.5931478551122047</v>
+        <v>0.7427665150281653</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N5">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q5">
-        <v>4.402410575466222</v>
+        <v>2.646449336804</v>
       </c>
       <c r="R5">
-        <v>39.621695179196</v>
+        <v>23.818044031236</v>
       </c>
       <c r="S5">
-        <v>0.06393665489432501</v>
+        <v>0.05680708982232786</v>
       </c>
       <c r="T5">
-        <v>0.06393665489432503</v>
+        <v>0.05680708982232785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.165916</v>
       </c>
       <c r="I6">
-        <v>0.5931478551122046</v>
+        <v>0.7427665150281654</v>
       </c>
       <c r="J6">
-        <v>0.5931478551122047</v>
+        <v>0.7427665150281653</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q6">
         <v>21.52183962974356</v>
@@ -818,10 +818,10 @@
         <v>193.696556667692</v>
       </c>
       <c r="S6">
-        <v>0.3125638578024262</v>
+        <v>0.461974865713866</v>
       </c>
       <c r="T6">
-        <v>0.3125638578024262</v>
+        <v>0.4619748657138659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.165916</v>
       </c>
       <c r="I7">
-        <v>0.5931478551122046</v>
+        <v>0.7427665150281654</v>
       </c>
       <c r="J7">
-        <v>0.5931478551122047</v>
+        <v>0.7427665150281653</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N7">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O7">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P7">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q7">
-        <v>14.91742964928089</v>
+        <v>10.43467973409333</v>
       </c>
       <c r="R7">
-        <v>134.256866843528</v>
+        <v>93.91211760684</v>
       </c>
       <c r="S7">
-        <v>0.2166473424154534</v>
+        <v>0.2239845594919715</v>
       </c>
       <c r="T7">
-        <v>0.2166473424154535</v>
+        <v>0.2239845594919715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4754126666666667</v>
+        <v>0.3180153333333334</v>
       </c>
       <c r="H8">
-        <v>1.426238</v>
+        <v>0.9540460000000001</v>
       </c>
       <c r="I8">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="J8">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N8">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q8">
-        <v>1.983276010586444</v>
+        <v>0.797505178274</v>
       </c>
       <c r="R8">
-        <v>17.849484095278</v>
+        <v>7.177546604465999</v>
       </c>
       <c r="S8">
-        <v>0.02880331847186481</v>
+        <v>0.01711876651706255</v>
       </c>
       <c r="T8">
-        <v>0.02880331847186481</v>
+        <v>0.01711876651706255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4754126666666667</v>
+        <v>0.3180153333333334</v>
       </c>
       <c r="H9">
-        <v>1.426238</v>
+        <v>0.9540460000000001</v>
       </c>
       <c r="I9">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="J9">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q9">
-        <v>9.695540093245112</v>
+        <v>6.48558742916689</v>
       </c>
       <c r="R9">
-        <v>87.25986083920601</v>
+        <v>58.37028686250201</v>
       </c>
       <c r="S9">
-        <v>0.140809311246545</v>
+        <v>0.1392157191583261</v>
       </c>
       <c r="T9">
-        <v>0.140809311246545</v>
+        <v>0.1392157191583261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4754126666666667</v>
+        <v>0.3180153333333334</v>
       </c>
       <c r="H10">
-        <v>1.426238</v>
+        <v>0.9540460000000001</v>
       </c>
       <c r="I10">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="J10">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N10">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O10">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P10">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q10">
-        <v>6.720268329333778</v>
+        <v>3.144481553393334</v>
       </c>
       <c r="R10">
-        <v>60.482414964004</v>
+        <v>28.30033398054</v>
       </c>
       <c r="S10">
-        <v>0.09759913792783244</v>
+        <v>0.06749754985447419</v>
       </c>
       <c r="T10">
-        <v>0.09759913792783244</v>
+        <v>0.06749754985447419</v>
       </c>
     </row>
   </sheetData>
